--- a/docs/PPG/Políticas.xlsx
+++ b/docs/PPG/Políticas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B708C688-BE5A-2F4F-B3B1-B17B5377C3F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{758AA9CE-B487-A448-87A0-B70C242E7C74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1260" yWindow="1000" windowWidth="27160" windowHeight="16400" xr2:uid="{18A21DAB-BF63-D748-A391-BF8484832018}"/>
   </bookViews>
@@ -21,6 +21,8 @@
     <sheet name="6" sheetId="7" r:id="rId6"/>
     <sheet name="7" sheetId="8" r:id="rId7"/>
     <sheet name="8" sheetId="9" r:id="rId8"/>
+    <sheet name="9" sheetId="11" r:id="rId9"/>
+    <sheet name="10" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
   <si>
     <t>Link</t>
   </si>
@@ -68,6 +70,12 @@
   </si>
   <si>
     <t>https://policyprofiles.sagepub.com/profile/385/luis-felipe</t>
+  </si>
+  <si>
+    <t>https://policyprofiles.sagepub.com/profile/375/thiago-lemos</t>
+  </si>
+  <si>
+    <t>https://policyprofiles.sagepub.com/profile/496/renato-almeida</t>
   </si>
 </sst>
 </file>
@@ -466,6 +474,35 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81F36E97-5C57-7942-8827-A537624EC2B8}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="107.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{689BD0A0-B616-F04B-9A1A-956E02CBFCA7}"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABF4A7AA-1938-9446-8A13-5C87FD3CC72D}">
   <dimension ref="A1:A2"/>
@@ -667,4 +704,33 @@
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB522B4E-A0B3-B147-A8EE-C0E3D33895D5}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="107.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{2642572A-5AF7-0C41-8234-123063A0CDB6}"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/docs/PPG/Políticas.xlsx
+++ b/docs/PPG/Políticas.xlsx
@@ -1,28 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{758AA9CE-B487-A448-87A0-B70C242E7C74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85007098-6A86-7940-99AB-3689F90D5C9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1260" yWindow="1000" windowWidth="27160" windowHeight="16400" xr2:uid="{18A21DAB-BF63-D748-A391-BF8484832018}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="2" r:id="rId1"/>
     <sheet name="2" sheetId="3" r:id="rId2"/>
-    <sheet name="3" sheetId="4" r:id="rId3"/>
-    <sheet name="4" sheetId="5" r:id="rId4"/>
-    <sheet name="5" sheetId="6" r:id="rId5"/>
-    <sheet name="6" sheetId="7" r:id="rId6"/>
-    <sheet name="7" sheetId="8" r:id="rId7"/>
-    <sheet name="8" sheetId="9" r:id="rId8"/>
-    <sheet name="9" sheetId="11" r:id="rId9"/>
-    <sheet name="10" sheetId="10" r:id="rId10"/>
+    <sheet name="3" sheetId="12" r:id="rId3"/>
+    <sheet name="4" sheetId="4" r:id="rId4"/>
+    <sheet name="5" sheetId="5" r:id="rId5"/>
+    <sheet name="6" sheetId="6" r:id="rId6"/>
+    <sheet name="7" sheetId="7" r:id="rId7"/>
+    <sheet name="8" sheetId="8" r:id="rId8"/>
+    <sheet name="9" sheetId="9" r:id="rId9"/>
+    <sheet name="10" sheetId="11" r:id="rId10"/>
+    <sheet name="11" sheetId="10" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
   <si>
     <t>Link</t>
   </si>
@@ -76,6 +77,9 @@
   </si>
   <si>
     <t>https://policyprofiles.sagepub.com/profile/496/renato-almeida</t>
+  </si>
+  <si>
+    <t>https://policyprofiles.sagepub.com/profile/1901/fabio-vieira</t>
   </si>
 </sst>
 </file>
@@ -475,6 +479,35 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB522B4E-A0B3-B147-A8EE-C0E3D33895D5}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="107.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{2642572A-5AF7-0C41-8234-123063A0CDB6}"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81F36E97-5C57-7942-8827-A537624EC2B8}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -533,6 +566,35 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BCB4717-5019-AA43-8C81-BA10DAF8C49C}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="107.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{0D4A2EB5-9508-9345-9813-B73660D8CACF}"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E1C0A64-D1FF-8445-8D71-B92E3EA97ADA}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -561,7 +623,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14CA4766-BC02-6845-BD38-BE2162510380}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -590,7 +652,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83CCBC10-DE71-EF40-9A7A-EF4F5E65D844}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -619,7 +681,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{017FDDA9-6E4E-8D41-81CF-7F237E91133C}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -648,7 +710,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3349ED04-6238-184F-B440-73F2354BA827}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -677,7 +739,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FC930FE-4581-7842-B3F1-A796AE7AA305}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -704,33 +766,4 @@
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB522B4E-A0B3-B147-A8EE-C0E3D33895D5}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="107.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{2642572A-5AF7-0C41-8234-123063A0CDB6}"/>
-  </hyperlinks>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
 </file>
--- a/docs/PPG/Políticas.xlsx
+++ b/docs/PPG/Políticas.xlsx
@@ -8,22 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85007098-6A86-7940-99AB-3689F90D5C9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29325FE6-D565-3942-A5F0-ADA632D22A45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1260" yWindow="1000" windowWidth="27160" windowHeight="16400" xr2:uid="{18A21DAB-BF63-D748-A391-BF8484832018}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="2" r:id="rId1"/>
     <sheet name="2" sheetId="3" r:id="rId2"/>
-    <sheet name="3" sheetId="12" r:id="rId3"/>
-    <sheet name="4" sheetId="4" r:id="rId4"/>
-    <sheet name="5" sheetId="5" r:id="rId5"/>
-    <sheet name="6" sheetId="6" r:id="rId6"/>
-    <sheet name="7" sheetId="7" r:id="rId7"/>
-    <sheet name="8" sheetId="8" r:id="rId8"/>
-    <sheet name="9" sheetId="9" r:id="rId9"/>
-    <sheet name="10" sheetId="11" r:id="rId10"/>
-    <sheet name="11" sheetId="10" r:id="rId11"/>
+    <sheet name="3" sheetId="13" r:id="rId3"/>
+    <sheet name="4" sheetId="12" r:id="rId4"/>
+    <sheet name="5" sheetId="4" r:id="rId5"/>
+    <sheet name="6" sheetId="5" r:id="rId6"/>
+    <sheet name="7" sheetId="6" r:id="rId7"/>
+    <sheet name="8" sheetId="7" r:id="rId8"/>
+    <sheet name="9" sheetId="8" r:id="rId9"/>
+    <sheet name="10" sheetId="9" r:id="rId10"/>
+    <sheet name="11" sheetId="11" r:id="rId11"/>
+    <sheet name="12" sheetId="10" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="13">
   <si>
     <t>Link</t>
   </si>
@@ -80,6 +81,9 @@
   </si>
   <si>
     <t>https://policyprofiles.sagepub.com/profile/1901/fabio-vieira</t>
+  </si>
+  <si>
+    <t>https://policyprofiles.sagepub.com/profile/4361/igor-ramathur</t>
   </si>
 </sst>
 </file>
@@ -479,6 +483,35 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FC930FE-4581-7842-B3F1-A796AE7AA305}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="107.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{4C08B1ED-A420-A842-980A-D05AB490EE5D}"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB522B4E-A0B3-B147-A8EE-C0E3D33895D5}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -507,7 +540,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81F36E97-5C57-7942-8827-A537624EC2B8}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -566,6 +599,35 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{529190AC-17A3-C94A-B0AC-1455EC155092}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="107.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{23B4CD9F-38AE-0341-9E36-5A93EF1EDCC5}"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BCB4717-5019-AA43-8C81-BA10DAF8C49C}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -594,7 +656,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E1C0A64-D1FF-8445-8D71-B92E3EA97ADA}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -623,7 +685,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14CA4766-BC02-6845-BD38-BE2162510380}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -652,7 +714,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83CCBC10-DE71-EF40-9A7A-EF4F5E65D844}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -681,7 +743,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{017FDDA9-6E4E-8D41-81CF-7F237E91133C}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -710,7 +772,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3349ED04-6238-184F-B440-73F2354BA827}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -737,33 +799,4 @@
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FC930FE-4581-7842-B3F1-A796AE7AA305}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="107.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{4C08B1ED-A420-A842-980A-D05AB490EE5D}"/>
-  </hyperlinks>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
 </file>
--- a/docs/PPG/Políticas.xlsx
+++ b/docs/PPG/Políticas.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29325FE6-D565-3942-A5F0-ADA632D22A45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67E97AF1-BBDD-7B49-986D-01F4087F408F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1260" yWindow="1000" windowWidth="27160" windowHeight="16400" xr2:uid="{18A21DAB-BF63-D748-A391-BF8484832018}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="2" r:id="rId1"/>
     <sheet name="2" sheetId="3" r:id="rId2"/>
-    <sheet name="3" sheetId="13" r:id="rId3"/>
-    <sheet name="4" sheetId="12" r:id="rId4"/>
+    <sheet name="3" sheetId="12" r:id="rId3"/>
+    <sheet name="4" sheetId="13" r:id="rId4"/>
     <sheet name="5" sheetId="4" r:id="rId5"/>
     <sheet name="6" sheetId="5" r:id="rId6"/>
     <sheet name="7" sheetId="6" r:id="rId7"/>
@@ -599,6 +599,35 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BCB4717-5019-AA43-8C81-BA10DAF8C49C}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="107.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{0D4A2EB5-9508-9345-9813-B73660D8CACF}"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{529190AC-17A3-C94A-B0AC-1455EC155092}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -622,35 +651,6 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{23B4CD9F-38AE-0341-9E36-5A93EF1EDCC5}"/>
-  </hyperlinks>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BCB4717-5019-AA43-8C81-BA10DAF8C49C}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="107.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{0D4A2EB5-9508-9345-9813-B73660D8CACF}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/docs/PPG/Políticas.xlsx
+++ b/docs/PPG/Políticas.xlsx
@@ -1,30 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (cienciasdareabilitacao@souunisuam.com.br)/ObservatorioCR/PPG/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurdesaferreira1/Documents/Google drive (arthur_sf)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67E97AF1-BBDD-7B49-986D-01F4087F408F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44A07B7E-6CF5-2F46-A829-D6291C9CF87A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1260" yWindow="1000" windowWidth="27160" windowHeight="16400" xr2:uid="{18A21DAB-BF63-D748-A391-BF8484832018}"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="2" r:id="rId1"/>
     <sheet name="2" sheetId="3" r:id="rId2"/>
-    <sheet name="3" sheetId="12" r:id="rId3"/>
-    <sheet name="4" sheetId="13" r:id="rId4"/>
-    <sheet name="5" sheetId="4" r:id="rId5"/>
-    <sheet name="6" sheetId="5" r:id="rId6"/>
-    <sheet name="7" sheetId="6" r:id="rId7"/>
-    <sheet name="8" sheetId="7" r:id="rId8"/>
-    <sheet name="9" sheetId="8" r:id="rId9"/>
-    <sheet name="10" sheetId="9" r:id="rId10"/>
-    <sheet name="11" sheetId="11" r:id="rId11"/>
-    <sheet name="12" sheetId="10" r:id="rId12"/>
+    <sheet name="3" sheetId="14" r:id="rId3"/>
+    <sheet name="4" sheetId="12" r:id="rId4"/>
+    <sheet name="5" sheetId="13" r:id="rId5"/>
+    <sheet name="6" sheetId="4" r:id="rId6"/>
+    <sheet name="7" sheetId="5" r:id="rId7"/>
+    <sheet name="8" sheetId="6" r:id="rId8"/>
+    <sheet name="9" sheetId="7" r:id="rId9"/>
+    <sheet name="10" sheetId="8" r:id="rId10"/>
+    <sheet name="11" sheetId="9" r:id="rId11"/>
+    <sheet name="12" sheetId="11" r:id="rId12"/>
+    <sheet name="13" sheetId="10" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
   <si>
     <t>Link</t>
   </si>
@@ -84,6 +85,9 @@
   </si>
   <si>
     <t>https://policyprofiles.sagepub.com/profile/4361/igor-ramathur</t>
+  </si>
+  <si>
+    <t>https://policyprofiles.sagepub.com/profile/17439/conrado-laett</t>
   </si>
 </sst>
 </file>
@@ -483,6 +487,35 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3349ED04-6238-184F-B440-73F2354BA827}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="107.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{03165D6E-990F-174E-8A0A-C22010BF29DA}"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FC930FE-4581-7842-B3F1-A796AE7AA305}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -511,7 +544,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB522B4E-A0B3-B147-A8EE-C0E3D33895D5}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -540,7 +573,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81F36E97-5C57-7942-8827-A537624EC2B8}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -599,6 +632,35 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB063F54-1814-234B-BA02-8006CEBF991C}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="107.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{2A7BBBDB-3200-414F-8D7E-122935B38752}"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BCB4717-5019-AA43-8C81-BA10DAF8C49C}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -627,7 +689,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{529190AC-17A3-C94A-B0AC-1455EC155092}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -656,7 +718,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E1C0A64-D1FF-8445-8D71-B92E3EA97ADA}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -685,7 +747,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14CA4766-BC02-6845-BD38-BE2162510380}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -714,7 +776,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83CCBC10-DE71-EF40-9A7A-EF4F5E65D844}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -743,7 +805,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{017FDDA9-6E4E-8D41-81CF-7F237E91133C}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -770,33 +832,4 @@
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3349ED04-6238-184F-B440-73F2354BA827}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="107.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{03165D6E-990F-174E-8A0A-C22010BF29DA}"/>
-  </hyperlinks>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
 </file>
--- a/docs/PPG/Políticas.xlsx
+++ b/docs/PPG/Políticas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arthurdesaferreira1/Documents/Google drive (arthur_sf)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/asferreira/Google Drive (arthur_sf@icloud.com)/Observatorios/ObservatorioUNISUAM-CR/PPG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44A07B7E-6CF5-2F46-A829-D6291C9CF87A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B446CD1-A320-5341-B783-0D79B6EBF6C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1260" yWindow="1000" windowWidth="27160" windowHeight="16400" xr2:uid="{18A21DAB-BF63-D748-A391-BF8484832018}"/>
   </bookViews>
@@ -16,16 +16,17 @@
     <sheet name="1" sheetId="2" r:id="rId1"/>
     <sheet name="2" sheetId="3" r:id="rId2"/>
     <sheet name="3" sheetId="14" r:id="rId3"/>
-    <sheet name="4" sheetId="12" r:id="rId4"/>
-    <sheet name="5" sheetId="13" r:id="rId5"/>
-    <sheet name="6" sheetId="4" r:id="rId6"/>
-    <sheet name="7" sheetId="5" r:id="rId7"/>
-    <sheet name="8" sheetId="6" r:id="rId8"/>
-    <sheet name="9" sheetId="7" r:id="rId9"/>
-    <sheet name="10" sheetId="8" r:id="rId10"/>
-    <sheet name="11" sheetId="9" r:id="rId11"/>
-    <sheet name="12" sheetId="11" r:id="rId12"/>
-    <sheet name="13" sheetId="10" r:id="rId13"/>
+    <sheet name="4" sheetId="15" r:id="rId4"/>
+    <sheet name="5" sheetId="12" r:id="rId5"/>
+    <sheet name="6" sheetId="13" r:id="rId6"/>
+    <sheet name="7" sheetId="4" r:id="rId7"/>
+    <sheet name="8" sheetId="5" r:id="rId8"/>
+    <sheet name="9" sheetId="6" r:id="rId9"/>
+    <sheet name="10" sheetId="7" r:id="rId10"/>
+    <sheet name="11" sheetId="8" r:id="rId11"/>
+    <sheet name="12" sheetId="9" r:id="rId12"/>
+    <sheet name="13" sheetId="11" r:id="rId13"/>
+    <sheet name="14" sheetId="10" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="15">
   <si>
     <t>Link</t>
   </si>
@@ -88,6 +89,9 @@
   </si>
   <si>
     <t>https://policyprofiles.sagepub.com/profile/17439/conrado-laett</t>
+  </si>
+  <si>
+    <t>https://policyprofiles.sagepub.com/profile/374/estêvão-rios-monteiro</t>
   </si>
 </sst>
 </file>
@@ -163,9 +167,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office 2013 - 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -203,7 +207,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -309,7 +313,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -451,7 +455,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -487,6 +491,35 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{017FDDA9-6E4E-8D41-81CF-7F237E91133C}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="107.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{90DBB75A-B774-0F42-8717-FD37A8C045A5}"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3349ED04-6238-184F-B440-73F2354BA827}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -515,7 +548,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FC930FE-4581-7842-B3F1-A796AE7AA305}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -544,7 +577,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB522B4E-A0B3-B147-A8EE-C0E3D33895D5}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -573,7 +606,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81F36E97-5C57-7942-8827-A537624EC2B8}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -661,6 +694,35 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5E9025B-4A44-3441-A7E1-6F1047E448F8}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="107.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{300BCC12-C0D8-A649-A764-0BD029E69C5A}"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BCB4717-5019-AA43-8C81-BA10DAF8C49C}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -689,7 +751,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{529190AC-17A3-C94A-B0AC-1455EC155092}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -718,7 +780,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E1C0A64-D1FF-8445-8D71-B92E3EA97ADA}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -747,7 +809,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14CA4766-BC02-6845-BD38-BE2162510380}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -776,7 +838,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83CCBC10-DE71-EF40-9A7A-EF4F5E65D844}">
   <dimension ref="A1:A2"/>
   <sheetViews>
@@ -803,33 +865,4 @@
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{017FDDA9-6E4E-8D41-81CF-7F237E91133C}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="107.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{90DBB75A-B774-0F42-8717-FD37A8C045A5}"/>
-  </hyperlinks>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
 </file>